--- a/output/teacher_timetables.xlsx
+++ b/output/teacher_timetables.xlsx
@@ -9,17 +9,17 @@
   <sheets>
     <sheet name="Dr. Abdul Wahid" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Dr. Anand B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dr. Animesh Chaturvedi" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Dr. Animesh Roy" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Dr. Anushree Kini" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Dr. Ashwath Babu" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Dr. Chandrika Kamath" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dr. Chandrika Kamathh" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Dr. Chinmayananda" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Dr. Deepak K.T" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Dr. Dibyajyothi Guha" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Dr. Girish GN" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Dr. Jagadeesha R Bhat" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Dr. Animesh Roy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dr. Anushree Kini" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Dr. Ashwath Babu" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Dr. Chandrika Kamath" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dr. Chandrika Kamathh" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dr. Chinmayananda" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Dr. Deepak K.T" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Dr. Dibyajyothi Guha" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Dr. Girirsh GN" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Dr. Jagadeesha R Bhat" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Dr. Jagdeesh DN" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Dr. Jagdish D.N" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Dr. Jagdish R.B" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Dr. Krishnendu" sheetId="16" state="visible" r:id="rId16"/>
@@ -41,9 +41,13 @@
     <sheet name="Dr. Sunil PV" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="Dr. Sunil Saumya" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="Dr. Suvadip H" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Dr. Utkarsh Khaire" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Dr. Vivekraj" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="TBD" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Dr. Vivekraj" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Dr.Animesh Chaturvedi" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Dr.Sandesh" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Dr.Shirshendu Layek" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Dr.Siddharth" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Dr.Utkarsh Khaire" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="TBD" sheetId="41" state="visible" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,21 +595,33 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>DS161 LEC
+(CSE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>DS161-C004 LEC
-(CSE_1_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -618,13 +634,7 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>DS161-C004 LEC
-(CSE_1_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
@@ -632,8 +642,8 @@
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>DS161-C004 TUT
-(CSE_1_B)
+          <t>DS161 TUT
+(CSE_1)
 Room: C004</t>
         </is>
       </c>
@@ -647,19 +657,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>DS161-C004 LEC
-(CSE_1_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>DS161 LEC
+(CSE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -672,13 +682,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>DS161-C004 LEC
-(CSE_1_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
@@ -686,13 +690,7 @@
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>DS161-C004 TUT
-(CSE_1_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
     </row>
@@ -703,13 +701,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 TUT
+(Common_7th_Semester)
+Room: 406/C004/406/406/406/C004/406/406/406/C004/406/406</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -755,7 +771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T — Weekly Timetable</t>
+          <t>Dr. Dibyajyothi Guha — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -838,10 +854,28 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 TUT
+(Common_7th_Semester)
+Room: C002/407/C002/C002/407/C002/C002/407/C002</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -853,13 +887,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>CS307 TUT
-(ECE_3)
-Room: 404</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
@@ -883,15 +911,21 @@
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(ECE_3)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -929,13 +963,7 @@
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(ECE_3)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -979,7 +1007,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha — Weekly Timetable</t>
+          <t>Dr. Girirsh GN — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -1062,10 +1090,28 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 TUT
+(Common_7th_Semester)
+Room: C002/407/C002/C002/407/C002/C002/407/C002</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -1076,13 +1122,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>DS456 TUT
-(Common_7th_Semester)
-Room: C003/402/C003/C003/402/C003/C003/402/C003</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -1111,14 +1151,14 @@
         <is>
           <t>DS456 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
           <t>DS456 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
@@ -1159,20 +1199,8 @@
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1215,7 +1243,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Girish GN — Weekly Timetable</t>
+          <t>Dr. Jagadeesha R Bhat — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -1314,9 +1342,9 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>DS456 TUT
+          <t>CS457 TUT
 (Common_7th_Semester)
-Room: C003/402/C003/C003/402/C003/C003/402/C003</t>
+Room: C003/403/406/403/404/C003/403/406/403/404/C003/403/406/403/404</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr"/>
@@ -1338,27 +1366,39 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="35" customHeight="1">
@@ -1395,20 +1435,8 @@
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1451,7 +1479,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat — Weekly Timetable</t>
+          <t>Dr. Jagdeesh DN — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -1529,8 +1557,20 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
@@ -1572,13 +1612,7 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS457 TUT
-(Common_7th_Semester)
-Room: C002/402/402/402/402/C002/402/402/402/402/C002/402/402/402/402</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
@@ -1593,20 +1627,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -1623,23 +1645,29 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 TUT
+(Common_7th_Semester)
+Room: 406/C004/406/406/406/C004/406/406/406/C004/406/406</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>CS457 LEC
+          <t>CS470 LEC
 (Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>CS457 LEC
+          <t>CS470 LEC
 (Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr"/>
@@ -1770,7 +1798,7 @@
         <is>
           <t>EC301 LEC
 (ECE_5)
-Room: 303</t>
+Room: 304</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr"/>
@@ -1792,13 +1820,7 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>EC301 TUT
-(ECE_5)
-Room: 101</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
@@ -1821,7 +1843,13 @@
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>EC301 TUT
+(ECE_5)
+Room: 202</t>
+        </is>
+      </c>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -1846,7 +1874,7 @@
         <is>
           <t>EC301 LEC
 (ECE_5)
-Room: 303</t>
+Room: 304</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr"/>
@@ -2008,18 +2036,18 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>EC351 LEC
+(ECE_5)
+Room: 102</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>EC351 LEC
-(ECE_5)
-Room: 204</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
@@ -2039,15 +2067,15 @@
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>EC351 LEC
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>EC351 TUT
 (ECE_5)
-Room: 204</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
+Room: 102</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -2065,13 +2093,7 @@
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>EC351 TUT
-(ECE_5)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -2085,7 +2107,13 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>EC351 LEC
+(ECE_5)
+Room: 102</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
@@ -2218,7 +2246,13 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>CS304 LEC
+(CSE_5)
+Room: 405</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
@@ -2232,7 +2266,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>CS457 TUT
+(Common_7th_Semester)
+Room: C003/403/406/403/404/C003/403/406/403/404/C003/403/406/403/404</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -2252,21 +2292,45 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>CS457 TUT
-(Common_7th_Semester)
-Room: C002/402/402/402/402/C002/402/402/402/402/C002/402/402/402/402</t>
+          <t>CS304 TUT
+(CSE_5)
+Room: 402</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="35" customHeight="1">
@@ -2277,20 +2341,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -2307,25 +2359,19 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS304 LEC
+(CSE_5)
+Room: 405</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -2468,7 +2514,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>CS457 TUT
+(Common_7th_Semester)
+Room: C003/403/406/403/404/C003/403/406/403/404/C003/403/406/403/404</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -2488,21 +2540,39 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS457 TUT
-(Common_7th_Semester)
-Room: C002/402/402/402/402/C002/402/402/402/402/C002/402/402/402/402</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="35" customHeight="1">
@@ -2513,20 +2583,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -2548,20 +2606,8 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -2705,19 +2751,19 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(DSAI_1)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>CS161 LEC
+(DSAI_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -2731,7 +2777,13 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>DS359 TUT
+(ECE_5)
+Room: 405</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
@@ -2750,36 +2802,30 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>DS359 LEC
 (ECE_5)
-Room: 402</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
+Room: 403</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>DS359 LEC
 (ECE_5)
-Room: 402</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>DS359 LEC
-(ECE_5)
-Room: 402</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>DS359 LEC
-(ECE_5)
-Room: 402</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr"/>
+Room: 403</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>CS161 LEC
+(DSAI_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -2793,22 +2839,10 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>DS359 TUT
-(ECE_5)
-Room: 407</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(DSAI_1)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
@@ -2933,26 +2967,20 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EC262 LEC
-(ECE_3)
-Room: 406</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>EC262 LAB
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>EC251 TUT
 (ECE_3)
-Room: L105+L106</t>
-        </is>
-      </c>
+Room: 202</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -2970,13 +2998,7 @@
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>EC262 LEC
-(ECE_3)
-Room: 406</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
@@ -2990,18 +3012,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>EC251 LEC
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>EC262 LEC
 (ECE_3)
-Room: 304</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>EC251 LEC
-(ECE_3)
-Room: 304</t>
+Room: 406</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr"/>
@@ -3020,22 +3036,22 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>EC251 LEC
 (ECE_3)
-Room: 304</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
+Room: 303</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>EC251 LEC
 (ECE_3)
-Room: 304</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
+Room: 303</t>
+        </is>
+      </c>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
@@ -3051,28 +3067,28 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>EC251 TUT
-(ECE_3)
-Room: 204</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>EC251 TUT
-(ECE_3)
-Room: 204</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>EC251 LEC
+(ECE_3)
+Room: 303</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>EC251 LEC
+(ECE_3)
+Room: 303</t>
+        </is>
+      </c>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3195,16 +3211,22 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>MA261-C004 LEC
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>MA261-C004 LEC
-(CSE_3_B)
+          <t>MA262 LEC
+(ECE_3)
 Room: C004</t>
         </is>
       </c>
@@ -3224,7 +3246,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>MA261 LEC
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -3243,21 +3271,27 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>MA261 TUT
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>MA261-C004 TUT
-(CSE_3_A)
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>MA262 LEC
+(ECE_3)
 Room: C004</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -3273,9 +3307,21 @@
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>MA262 TUT
+(ECE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>MA261 LEC
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -3287,32 +3333,32 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>MA261-C004 TUT
-(CSE_3_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 TUT
+(Common_7th_Semester)
+Room: 406/C004/406/406/406/C004/406/406/406/C004/406/406</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>MA261-C004 LEC
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>MA261-C004 LEC
-(CSE_3_B)
-Room: C004</t>
-        </is>
-      </c>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
@@ -3455,26 +3501,20 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>CS264-C004 LEC
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>CS264-C004 TUT
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>CS264 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
     </row>
@@ -3504,18 +3544,18 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>CS264 TUT
+(CSE_3)
+Room: 304</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>CS264-C004 TUT
-(CSE_3_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
@@ -3535,14 +3575,14 @@
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>CS264-C004 LEC
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>CS264 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
@@ -3686,18 +3726,18 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>EC161 LEC
+(DSAI_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>EC161 LEC
-(ECE_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -3709,26 +3749,20 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>EC161 LEC
+(ECE_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>EC161 LEC
-(DSAI_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>EC161 LAB
-(ECE_1)
-Room: L105+L106</t>
-        </is>
-      </c>
+      <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -3740,7 +3774,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>EC161 LEC
+(ECE_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
@@ -3749,7 +3789,7 @@
         <is>
           <t>EC161 LEC
 (DSAI_1)
-Room: C003</t>
+Room: C002</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr"/>
@@ -3767,16 +3807,16 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>EC161 LEC
-(ECE_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>EC161 LAB
+(ECE_1)
+Room: L105+L106</t>
+        </is>
+      </c>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
@@ -3906,27 +3946,9 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>CS263 LAB
-(CSE_3_B)
-Room: L105+L106</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>CS463 LEC
-(ECE_5)
-Room: 407</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>CS463 LEC
-(ECE_5)
-Room: 407</t>
-        </is>
-      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -3938,33 +3960,21 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>CS263 LEC
-(CSE_3_B)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>CS263 LEC
-(CSE_3_B)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>CS263 LAB
+(CSE_3)
+Room: L105+L106</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>CS263 LEC
-(CSE_3_A)
-Room: 205</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
     </row>
@@ -3975,32 +3985,50 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>CS463 LEC
+(ECE_5)
+Room: 407</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS463 LEC
+(ECE_5)
+Room: 407</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>CS263 LEC
+(CSE_3)
+Room: 302</t>
+        </is>
+      </c>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="35" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>CS463 TUT
 (ECE_5)
-Room: 404</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6" ht="35" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
+Room: 407</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
@@ -4019,33 +4047,39 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS263 LEC
+(CSE_3)
+Room: 302</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>CS263 LEC
-(CSE_3_A)
-Room: 205</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>CS463 LEC
 (ECE_5)
 Room: 407</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>CS463 LEC
 (ECE_5)
 Room: 407</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>CS463 LEC
+(ECE_5)
+Room: 407</t>
+        </is>
+      </c>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -4172,10 +4206,28 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 TUT
+(Common_7th_Semester)
+Room: C002/407/C002/C002/407/C002/C002/407/C002</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>DS456 LEC
+(Common_7th_Semester)
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -4186,13 +4238,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>DS456 TUT
-(Common_7th_Semester)
-Room: C003/402/C003/C003/402/C003/C003/402/C003</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -4221,14 +4267,14 @@
         <is>
           <t>DS456 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
           <t>DS456 LEC
 (Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
+Room: C002/406/C002/C002/406/C002/C002/406/C002</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr"/>
@@ -4269,20 +4315,8 @@
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>DS456 LEC
-(Common_7th_Semester)
-Room: C003/403/C003/C003/403/C003/C003/403/C003</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4407,15 +4441,27 @@
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>EC263 LEC
-(ECE_3)
-Room: 404</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 TUT
+(Common_7th_Semester)
+Room: 407/406/C004/402/407/406/C004/402/407/406/C004/402</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
@@ -4430,13 +4476,7 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>EC263 LEC
-(ECE_3)
-Room: 404</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
@@ -4472,8 +4512,20 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
@@ -4626,14 +4678,14 @@
         <is>
           <t>HS156 LEC
 (DSAI_1)
-Room: 407</t>
+Room: 402</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>HS156 LEC
 (DSAI_1)
-Room: 407</t>
+Room: 402</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr"/>
@@ -4641,7 +4693,13 @@
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+(CSE_1)
+Room: C003</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -4653,26 +4711,26 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(CSE_1_B)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>HS156 LEC
+(DSAI_1)
+Room: 402</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>HS156 LEC
+(DSAI_1)
+Room: 402</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(CSE_1_A)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
     </row>
@@ -4685,29 +4743,11 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(CSE_1_B)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>HS156 LEC
-(DSAI_1)
-Room: 407</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>HS156 LEC
-(DSAI_1)
-Room: 407</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -4726,7 +4766,13 @@
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+(CSE_1)
+Room: C003</t>
+        </is>
+      </c>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
@@ -4740,26 +4786,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HS156 TUT
+(DSAI_1)
+Room: 402</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(CSE_1_A)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>HS156 TUT
-(DSAI_1)
-Room: 405</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -4886,13 +4926,7 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>MA161-C004 LEC
-(CSE_1_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
@@ -4906,15 +4940,15 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>MA161-C004 TUT
-(CSE_1_A)
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>MA161 LEC
+(CSE_1)
 Room: C004</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
@@ -4938,13 +4972,7 @@
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>MA161-C004 LEC
-(CSE_1_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -4958,23 +4986,17 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>MA161-C004 TUT
-(CSE_1_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>MA161-C004 LEC
-(CSE_1_A)
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>MA161 TUT
+(CSE_1)
 Room: C004</t>
         </is>
       </c>
+      <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
@@ -4989,18 +5011,18 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>MA161-C004 LEC
-(CSE_1_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>MA161 LEC
+(CSE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
@@ -5131,13 +5153,7 @@
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>DS302 LEC
-(DSAI_5)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -5150,9 +5166,9 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>DS302 TUT
-(DSAI_5)
-Room: C002</t>
+          <t>CS457 TUT
+(Common_7th_Semester)
+Room: C003/403/406/403/404/C003/403/406/403/404/C003/403/406/403/404</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr"/>
@@ -5174,21 +5190,39 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS457 TUT
-(Common_7th_Semester)
-Room: C002/402/402/402/402/C002/402/402/402/402/C002/402/402/402/402</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="35" customHeight="1">
@@ -5199,32 +5233,14 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>DS302 LEC
-(DSAI_5)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
     </row>
@@ -5240,20 +5256,8 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -5382,9 +5386,21 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>EC306 LEC
+(ECE_5)
+Room: 202</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>NEW TUT
+(ECE_3)
+Room: 204</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -5396,26 +5412,26 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>EC306 LEC
-(ECE_5)
-Room: 203</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>NEW-ESI TUT
-(ECE_3)
+          <t>EC306 LEC
+(ECE_5)
 Room: 202</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>EC306 LAB
+(ECE_5)
+Room: L107+L207</t>
+        </is>
+      </c>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -5427,8 +5443,20 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 202</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 202</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -5446,13 +5474,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>EC306 LAB
-(ECE_5)
-Room: L105+L106</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
@@ -5472,32 +5494,26 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 202</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 202</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>NEW-ESI LEC
-(ECE_3)
-Room: 302</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>NEW-ESI LEC
-(ECE_3)
-Room: 302</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>EC306 LEC
-(ECE_5)
-Room: 203</t>
-        </is>
-      </c>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -5639,20 +5655,20 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>DA262 LEC
-(DSAI_3)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>DA262 LEC
+(DSAI_3)
+Room: C003</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
     </row>
@@ -5665,13 +5681,7 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(DSAI_5)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
@@ -5707,13 +5717,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(DSAI_5)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
@@ -5765,7 +5769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Animesh Chaturvedi — Weekly Timetable</t>
+          <t>Dr. Animesh Roy — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -5843,21 +5847,27 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>DS303 TUT
-(DSAI_5)
-Room: C002</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CS303 LAB
+(CSE_5)
+Room: L105+L106</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>CS303 LEC
+(CSE_5)
+Room: 404</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -5875,17 +5885,17 @@
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>CS304 LEC
-(DSAI_3)
-Room: C003</t>
+          <t>CS303 TUT
+(CSE_5)
+Room: 403</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>DS303 LEC
-(DSAI_5)
-Room: C002</t>
+          <t>CS161 LAB
+(ECE_1)
+Room: L105+L106</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr"/>
@@ -5904,15 +5914,15 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS304 LEC
-(DSAI_3)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>CS161 LEC
+(ECE_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -5925,7 +5935,13 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>CS303 LEC
+(CSE_5)
+Room: 404</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
@@ -5945,25 +5961,19 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>CS304 TUT
-(DSAI_3)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>DS303 LEC
-(DSAI_5)
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>CS161 LEC
+(ECE_1)
 Room: C002</t>
         </is>
       </c>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -6085,21 +6095,33 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>EC261 LEC
+(ECE_3)
+Room: 404</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>MA262 TUT
+(DSAI_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>EC261 TUT
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>MA261 LEC
 (ECE_3)
-Room: 403</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+Room: C004</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -6115,8 +6137,20 @@
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>MA261 TUT
+(ECE_3)
+Room: C004</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>MA262 LEC
+(DSAI_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
@@ -6154,15 +6188,21 @@
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>EC261 LEC
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>MA261 LEC
 (ECE_3)
-Room: 404</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr"/>
+Room: C004</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>MA262 LEC
+(DSAI_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
     </row>
@@ -6179,7 +6219,13 @@
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>EC261 TUT
+(ECE_3)
+Room: 404</t>
+        </is>
+      </c>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -6328,13 +6374,7 @@
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>CS309-C004 LEC
-(CSE_5_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
@@ -6349,17 +6389,17 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>CS309-C004 LEC
-(CSE_5_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>CS309 LEC
+(CSE_5)
+Room: 406</t>
+        </is>
+      </c>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -6380,7 +6420,13 @@
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>CS309 LEC
+(CSE_5)
+Room: 406</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
     </row>
@@ -6391,15 +6437,15 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>CS309-C004 TUT
-(CSE_5_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>CS309 TUT
+(CSE_5)
+Room: 406</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
@@ -6546,19 +6592,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>CS161 LEC
+(CSE_1)
+Room: C002</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(CSE_1_A)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
@@ -6578,13 +6624,7 @@
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(CSE_1_B)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -6616,24 +6656,18 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>CS161 LEC
-(CSE_1_A)
+(CSE_1)
 Room: C002</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(CSE_1_B)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -6776,7 +6810,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>CS457 TUT
+(Common_7th_Semester)
+Room: C003/403/406/403/404/C003/403/406/403/404/C003/403/406/403/404</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
@@ -6796,21 +6836,39 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS457 TUT
-(Common_7th_Semester)
-Room: C002/402/402/402/402/C002/402/402/402/402/C002/402/402/402/402</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>CS457 LEC
+(Common_7th_Semester)
+Room: C003/404/402/404/402/C003/404/402/404/402/C003/404/402/404/402</t>
+        </is>
+      </c>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="35" customHeight="1">
@@ -6821,20 +6879,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -6856,20 +6902,8 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>CS457 LEC
-(Common_7th_Semester)
-Room: C003/405/404/404/405/C003/405/404/404/405/C003/405/404/404/405</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
@@ -6995,17 +7029,17 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>CS261 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>CS261 LEC
-(CSE_3_A)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
@@ -7045,7 +7079,13 @@
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>CS261 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -7058,30 +7098,12 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>CS261 LEC
-(CSE_3_B)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>CS261 LEC
-(CSE_3_A)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>CS261 LEC
-(CSE_3_B)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -7145,7 +7167,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Utkarsh Khaire — Weekly Timetable</t>
+          <t>Dr. Vivekraj — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -7228,15 +7250,15 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(DSAI_3)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>CS262 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -7255,13 +7277,7 @@
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>CS307 LEC
-(DSAI_3)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -7274,7 +7290,13 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>CS262 LAB
+(CSE_3)
+Room: L105+L106</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
@@ -7313,7 +7335,13 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>CS262 LEC
+(CSE_3)
+Room: 101</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
@@ -7363,7 +7391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj — Weekly Timetable</t>
+          <t>Dr.Animesh Chaturvedi — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -7443,23 +7471,23 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>CS262 LEC
-(CSE_3_A)
-Room: 305</t>
-        </is>
-      </c>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>DS303 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>CS262 LEC
-(CSE_3_A)
-Room: 305</t>
+          <t>CS304 TUT
+(DSAI_3)
+Room: 402</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr"/>
@@ -7473,7 +7501,13 @@
       </c>
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>DS303 TUT
+(DSAI_5)
+Room: 305</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
@@ -7493,25 +7527,19 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>CS304 LEC
+(DSAI_3)
+Room: 405</t>
+        </is>
+      </c>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS262 LEC
-(CSE_3_B)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>CS262 LEC
-(CSE_3_B)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -7524,18 +7552,24 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>DS303 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>CS304 LEC
+(DSAI_3)
+Room: 405</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>CS262 LAB
-(CSE_3_A)
-Room: L105+L106</t>
-        </is>
-      </c>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -7552,13 +7586,7 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>CS262 LAB
-(CSE_3_B)
-Room: L105+L106</t>
-        </is>
-      </c>
+      <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
@@ -7605,7 +7633,243 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TBD — Weekly Timetable</t>
+          <t>Dr.Sandesh — Weekly Timetable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30-11:30</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>11:30-12:30</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>12:30-13:00</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>18:00-18:30</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 TUT
+(Common_7th_Semester)
+Room: 407/406/C004/402/407/406/C004/402/407/406/C004/402</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="35" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="35" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dr.Shirshendu Layek — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -7704,7 +7968,13 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>DS302 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
@@ -7726,16 +7996,16 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>NEW-HSS LEC
-(ECE_3)
-Room: 404</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>DS302 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -7751,15 +8021,245 @@
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>NEW-HSS LEC
-(ECE_3)
-Room: 404</t>
-        </is>
-      </c>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>DS302 LAB
+(DSAI_5)
+Room: L105+L106</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>DS302 TUT
+(DSAI_5)
+Room: 303</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dr.Siddharth — Weekly Timetable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30-11:30</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>11:30-12:30</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>12:30-13:00</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>18:00-18:30</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="35" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>CS307 LAB
+(DSAI_5)
+Room: L107+L207</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="35" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+(DSAI_5)
+Room: 104</t>
+        </is>
+      </c>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -7823,7 +8323,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy — Weekly Timetable</t>
+          <t>Dr. Anushree Kini — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -7903,28 +8403,276 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>CS303 LAB
-(CSE_5_A)
-Room: L105+L106</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>CS303 LEC
-(CSE_5_B)
-Room: 402</t>
-        </is>
-      </c>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>CS161 LAB
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>HS161 LEC
 (ECE_1)
+Room: C003</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="35" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="35" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+(DSAI_1)
+Room: C003</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+(ECE_1)
+Room: C003</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 TUT
+(Common_7th_Semester)
+Room: 406/C004/406/406/406/C004/406/406/406/C004/406/406</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>CS470 LEC
+(Common_7th_Semester)
+Room: 402/C004/406/403/402/C004/406/403/402/C004/406/403</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>HS161 LEC
+(DSAI_1)
+Room: C003</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dr.Utkarsh Khaire — Weekly Timetable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30-11:30</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>11:30-12:30</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>12:30-13:00</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>18:00-18:30</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>CS307 LAB
+(DSAI_3)
 Room: L107+L207</t>
         </is>
       </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
@@ -7940,24 +8688,12 @@
       <c r="B4" s="4" t="inlineStr"/>
       <c r="C4" s="4" t="inlineStr"/>
       <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>CS303 LEC
-(CSE_5_A)
-Room: 405</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>CS303 LAB
-(CSE_5_B)
-Room: L105+L106</t>
-        </is>
-      </c>
+      <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -7969,24 +8705,12 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>CS161 LEC
-(ECE_1)
-Room: C002</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>CS303 LEC
-(CSE_5_A)
-Room: 405</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
@@ -8002,9 +8726,9 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>CS161 LEC
-(ECE_1)
-Room: C002</t>
+          <t>CS307 LEC
+(DSAI_3)
+Room: 104</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr"/>
@@ -8013,13 +8737,7 @@
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>CS303 TUT
-(CSE_5_A)
-Room: 407</t>
-        </is>
-      </c>
+      <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
@@ -8032,26 +8750,238 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>CS303 TUT
-(CSE_5_B)
-Room: 402</t>
-        </is>
-      </c>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+(DSAI_3)
+Room: 104</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TBD — Weekly Timetable</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>09:30-10:30</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10:30-11:30</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>11:30-12:30</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>12:30-13:00</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>18:00-18:30</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="35" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 407</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="35" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>NEW LEC
+(ECE_3)
+Room: 407</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="35" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>CS303 LEC
-(CSE_5_B)
-Room: 402</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -8095,7 +9025,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini — Weekly Timetable</t>
+          <t>Dr. Ashwath Babu — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -8173,19 +9103,37 @@
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>HS261 LEC
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(DSAI_1)
-Room: C003</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 TUT
+(Common_7th_Semester)
+Room: 407/406/C004/402/407/406/C004/402/407/406/C004/402</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
@@ -8217,18 +9165,18 @@
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(DSAI_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>HS261 TUT
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
@@ -8242,19 +9190,31 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(ECE_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>HS261 LEC
+(CSE_3)
+Room: C004</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
@@ -8267,13 +9227,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>HS161 LEC
-(ECE_1)
-Room: C003</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
@@ -8325,7 +9279,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu — Weekly Timetable</t>
+          <t>Dr. Chandrika Kamath — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -8404,19 +9358,25 @@
       </c>
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>HS157 LEC
+(ECE_1)
+Room: 102</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>HS157 LEC
+(ECE_1)
+Room: 102</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>HS261-C004 TUT
-(CSE_3_B)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -8433,12 +9393,18 @@
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>HS157 LEC
+(ECE_1)
+Room: 102</t>
+        </is>
+      </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>HS261-C004 LEC
-(CSE_3_A)
-Room: C004</t>
+          <t>HS157 LEC
+(ECE_1)
+Room: 102</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr"/>
@@ -8458,22 +9424,10 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>HS261-C004 TUT
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>HS261-C004 LEC
-(CSE_3_A)
-Room: C004</t>
-        </is>
-      </c>
+      <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
     </row>
@@ -8504,7 +9458,13 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HS157 TUT
+(ECE_1)
+Room: 303</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
@@ -8555,7 +9515,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath — Weekly Timetable</t>
+          <t>Dr. Chandrika Kamathh — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -8634,20 +9594,8 @@
       </c>
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>HS157 LEC
-(ECE_1)
-Room: 102</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>HS157 LEC
-(ECE_1)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr"/>
@@ -8688,20 +9636,8 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>HS157 LEC
-(ECE_1)
-Room: 102</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>HS157 LEC
-(ECE_1)
-Room: 102</t>
-        </is>
-      </c>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -8715,7 +9651,13 @@
       </c>
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>HS351 LEC
+(ECE_5)
+Room: 304</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
@@ -8733,7 +9675,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>HS351 LEC
+(ECE_5)
+Room: 304</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
@@ -8741,13 +9689,7 @@
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>HS157 TUT
-(ECE_1)
-Room: 203</t>
-        </is>
-      </c>
+      <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
     </row>
@@ -8791,7 +9733,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamathh — Weekly Timetable</t>
+          <t>Dr. Chinmayananda — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -8871,13 +9813,43 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>MA162 TUT
+(DSAI_1)
+Room: C004</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>EC462 TUT
+(Common_7th_Semester)
+Room: 407/406/C004/402/407/406/C004/402/407/406/C004/402</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>MA162 LEC
+(ECE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
     </row>
@@ -8888,20 +9860,26 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>MA162 LEC
+(ECE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="inlineStr"/>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>HS351 LEC
-(ECE_5)
-Room: 204</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>MA263 LEC
+(ECE_3)
+Room: 405</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr"/>
       <c r="K4" s="4" t="inlineStr"/>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
@@ -8914,19 +9892,19 @@
       </c>
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>HS351 LEC
-(ECE_5)
-Room: 204</t>
-        </is>
-      </c>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>MA162 LEC
+(DSAI_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -8938,15 +9916,45 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>EC462 LEC
+(Common_7th_Semester)
+Room: 406/402/C004/405/406/402/C004/405/406/402/C004/405</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>MA162 LEC
+(DSAI_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>MA162 TUT
+(ECE_1)
+Room: C004</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>MA263 LEC
+(ECE_3)
+Room: 405</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="inlineStr"/>
       <c r="M6" s="4" t="inlineStr"/>
     </row>
@@ -8962,7 +9970,13 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>MA263 TUT
+(ECE_3)
+Room: 402</t>
+        </is>
+      </c>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
@@ -9009,7 +10023,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda — Weekly Timetable</t>
+          <t>Dr. Deepak K.T — Weekly Timetable</t>
         </is>
       </c>
     </row>
@@ -9092,7 +10106,13 @@
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>CS307 TUT
+(ECE_3)
+Room: 404</t>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
@@ -9114,7 +10134,13 @@
       <c r="H4" s="4" t="inlineStr"/>
       <c r="I4" s="4" t="inlineStr"/>
       <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>CS307 LEC
+(ECE_3)
+Room: 104</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="inlineStr"/>
       <c r="M4" s="4" t="inlineStr"/>
     </row>
@@ -9131,14 +10157,14 @@
       <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>MA263 TUT
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>CS307 LEC
 (ECE_3)
-Room: 403</t>
-        </is>
-      </c>
+Room: 104</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -9152,13 +10178,7 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>MA263 LEC
-(ECE_3)
-Room: 406</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
@@ -9177,13 +10197,7 @@
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>MA263 LEC
-(ECE_3)
-Room: 406</t>
-        </is>
-      </c>
+      <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr"/>
       <c r="H7" s="3" t="inlineStr"/>
